--- a/testcases/TutorialsNinja Web Application - Test Cases (Complete and Final).xlsx
+++ b/testcases/TutorialsNinja Web Application - Test Cases (Complete and Final).xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunm\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832448BB-C061-4C4B-92C2-1FEBD8445B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7F803034-200D-48C9-9FC1-D46ECBF2B4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="hidden" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vesion History" sheetId="2" r:id="rId1"/>
@@ -50,19 +45,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Register!$A$1:$K$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
